--- a/现金流量表/688063.xlsx
+++ b/现金流量表/688063.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>SECUCODE</t>
   </si>
@@ -166,12 +166,18 @@
     <t>688063</t>
   </si>
   <si>
+    <t>016043</t>
+  </si>
+  <si>
     <t>10431951</t>
   </si>
   <si>
     <t>派能科技</t>
   </si>
   <si>
+    <t>机械行业</t>
+  </si>
+  <si>
     <t>kcb</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>069001001006</t>
   </si>
   <si>
+    <t>004</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -190,7 +199,7 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2018-12-31 00:00:00</t>
+    <t>2020-09-30 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -707,77 +716,83 @@
       <c r="B2" t="s">
         <v>49</v>
       </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O2">
-        <v>7080951.17</v>
+        <v>224329250.94</v>
       </c>
       <c r="P2">
-        <v>175.2828316043</v>
+        <v>152.8586866629</v>
       </c>
       <c r="Q2">
-        <v>315550652.1</v>
+        <v>650581174.36</v>
       </c>
       <c r="R2">
-        <v>7811.1839054902</v>
+        <v>443.3081440052</v>
       </c>
       <c r="S2">
-        <v>67325897.91</v>
+        <v>83369379.41</v>
       </c>
       <c r="T2">
-        <v>1666.5944648741</v>
+        <v>56.8081683112</v>
       </c>
       <c r="U2">
-        <v>-32958304.71</v>
+        <v>-72922860.73999999</v>
       </c>
       <c r="V2">
-        <v>-815.854372633</v>
+        <v>-49.6898762587</v>
       </c>
       <c r="Y2">
-        <v>33081926.21</v>
+        <v>73133967.73999999</v>
       </c>
       <c r="Z2">
-        <v>818.9145161148</v>
+        <v>49.8337252603</v>
       </c>
       <c r="AA2">
-        <v>27274747.7</v>
+        <v>6866603.01</v>
       </c>
       <c r="AB2">
-        <v>675.1628267687</v>
+        <v>4.6789257912</v>
       </c>
       <c r="AC2">
-        <v>4039728.88</v>
+        <v>146755971.7</v>
       </c>
       <c r="AD2">
-        <v>109.3773229227</v>
+        <v>62.1075473746</v>
       </c>
     </row>
   </sheetData>

--- a/现金流量表/688063.xlsx
+++ b/现金流量表/688063.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,58 +739,56 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-10 00:00:00</t>
+          <t>2020-12-24 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>224329250.94</v>
+        <v>113090467.6</v>
       </c>
       <c r="P2" t="n">
-        <v>152.8586866629</v>
+        <v>164.0143748403</v>
       </c>
       <c r="Q2" t="n">
-        <v>650581174.36</v>
+        <v>370581488.65</v>
       </c>
       <c r="R2" t="n">
-        <v>443.3081440052</v>
+        <v>537.4519398336</v>
       </c>
       <c r="S2" t="n">
-        <v>83369379.41</v>
+        <v>56068181.04</v>
       </c>
       <c r="T2" t="n">
-        <v>56.8081683112</v>
+        <v>81.315320883</v>
       </c>
       <c r="U2" t="n">
-        <v>-72922860.73999999</v>
+        <v>-30686089.54</v>
       </c>
       <c r="V2" t="n">
-        <v>-49.6898762587</v>
+        <v>-44.503837494</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>73133967.73999999</v>
+        <v>30710843.37</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.8337252603</v>
+        <v>44.5397378138</v>
       </c>
       <c r="AA2" t="n">
-        <v>6866603.01</v>
+        <v>-16257798.78</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.6789257912</v>
+        <v>-23.5785805804</v>
       </c>
       <c r="AC2" t="n">
-        <v>146755971.7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>62.1075473746</v>
-      </c>
+        <v>68951558.48999999</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688063.xlsx
+++ b/现金流量表/688063.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>113090467.6</v>
+        <v>-14067931.59</v>
       </c>
       <c r="P2" t="n">
-        <v>164.0143748403</v>
+        <v>-32.655542313</v>
       </c>
       <c r="Q2" t="n">
-        <v>370581488.65</v>
+        <v>145268344.38</v>
       </c>
       <c r="R2" t="n">
-        <v>537.4519398336</v>
+        <v>337.2078216537</v>
       </c>
       <c r="S2" t="n">
-        <v>56068181.04</v>
+        <v>47858180.31</v>
       </c>
       <c r="T2" t="n">
-        <v>81.315320883</v>
+        <v>111.0920125064</v>
       </c>
       <c r="U2" t="n">
-        <v>-30686089.54</v>
+        <v>2895869.73</v>
       </c>
       <c r="V2" t="n">
-        <v>-44.503837494</v>
+        <v>6.7221109156</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>30710843.37</v>
+        <v>12149132.79</v>
       </c>
       <c r="Z2" t="n">
-        <v>44.5397378138</v>
+        <v>28.2014820268</v>
       </c>
       <c r="AA2" t="n">
-        <v>-16257798.78</v>
+        <v>-30998727.34</v>
       </c>
       <c r="AB2" t="n">
-        <v>-23.5785805804</v>
+        <v>-71.95658052669999</v>
       </c>
       <c r="AC2" t="n">
-        <v>68951558.48999999</v>
+        <v>-43079767.15</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>

--- a/现金流量表/688063.xlsx
+++ b/现金流量表/688063.xlsx
@@ -744,51 +744,53 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-14067931.59</v>
+        <v>7080951.17</v>
       </c>
       <c r="P2" t="n">
-        <v>-32.655542313</v>
+        <v>175.2828316043</v>
       </c>
       <c r="Q2" t="n">
-        <v>145268344.38</v>
+        <v>315550652.1</v>
       </c>
       <c r="R2" t="n">
-        <v>337.2078216537</v>
+        <v>7811.1839054902</v>
       </c>
       <c r="S2" t="n">
-        <v>47858180.31</v>
+        <v>67325897.91</v>
       </c>
       <c r="T2" t="n">
-        <v>111.0920125064</v>
+        <v>1666.5944648741</v>
       </c>
       <c r="U2" t="n">
-        <v>2895869.73</v>
+        <v>-32958304.71</v>
       </c>
       <c r="V2" t="n">
-        <v>6.7221109156</v>
+        <v>-815.854372633</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>12149132.79</v>
+        <v>33081926.21</v>
       </c>
       <c r="Z2" t="n">
-        <v>28.2014820268</v>
+        <v>818.9145161148</v>
       </c>
       <c r="AA2" t="n">
-        <v>-30998727.34</v>
+        <v>27274747.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>-71.95658052669999</v>
+        <v>675.1628267687</v>
       </c>
       <c r="AC2" t="n">
-        <v>-43079767.15</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>4039728.88</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>109.3773229227</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
